--- a/3 - Scripts/sensitivity analysis summary.xlsx
+++ b/3 - Scripts/sensitivity analysis summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abilinski/Dropbox/Schools/Public code/3 - Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0C6B18-201F-B346-AD6A-98F67A6577EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914FA8D6-EE4C-F045-A862-7FE687C12848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{3E80DB2D-B709-5F45-A5D8-EB489753493F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Sensitivity analyses</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>route through asymptomatics</t>
+  </si>
+  <si>
+    <t>n_HH</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165DC0CE-5677-184A-BA67-6CD01BB004B2}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,50 +464,54 @@
     <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -515,7 +522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -526,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -537,7 +544,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -548,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
